--- a/机电系统设计成绩统计.xlsx
+++ b/机电系统设计成绩统计.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
-    <t>机电系统设计课程设计评分记录表</t>
+    <t>机电系统设计课程设计评分记录表(Draft)</t>
   </si>
   <si>
     <t>编号</t>
@@ -1240,8 +1240,8 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>

--- a/机电系统设计成绩统计.xlsx
+++ b/机电系统设计成绩统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>机电系统设计课程设计评分记录表(Draft)</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>总体方案论述不清</t>
+  </si>
+  <si>
+    <t>彭金焕 邵京 张秀泽 李想</t>
+  </si>
+  <si>
+    <t>内容比较冗长，缺少新意，不像方案设计。</t>
   </si>
 </sst>
 </file>
@@ -151,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -183,6 +189,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -192,7 +205,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +256,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -215,14 +296,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -236,88 +324,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -340,49 +346,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,43 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,79 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,15 +640,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -663,6 +660,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -674,6 +680,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,158 +718,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1241,7 +1247,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="H28" sqref="H27:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -1462,7 +1468,7 @@
         <v>85</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" ref="G9:G19" si="1">AVERAGE(C9:F9)</f>
+        <f t="shared" ref="G9:G20" si="1">AVERAGE(C9:F9)</f>
         <v>80.75</v>
       </c>
       <c r="H9" s="6"/>
@@ -1774,7 +1780,7 @@
         <v>85</v>
       </c>
       <c r="G20" s="6">
-        <f>AVERAGE(C20:F20)</f>
+        <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
       <c r="H20" s="14" t="s">
@@ -1900,17 +1906,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" ht="25.5" spans="1:8">
       <c r="A25" s="5">
         <v>19</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="14"/>
+      <c r="B25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="6">
+        <v>80</v>
+      </c>
+      <c r="D25" s="6">
+        <v>75</v>
+      </c>
+      <c r="E25" s="6">
+        <v>85</v>
+      </c>
+      <c r="F25" s="15">
+        <v>85</v>
+      </c>
+      <c r="G25" s="6">
+        <f>AVERAGE(C25:F25)</f>
+        <v>81.25</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="9:9">
       <c r="I26">

--- a/机电系统设计成绩统计.xlsx
+++ b/机电系统设计成绩统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>机电系统设计课程设计评分记录表(Draft)</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>内容比较冗长，缺少新意，不像方案设计。</t>
+  </si>
+  <si>
+    <t>13机电2班王珏海</t>
+  </si>
+  <si>
+    <t>文档撰写质量不高，内容有点偏题，</t>
   </si>
 </sst>
 </file>
@@ -157,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -190,9 +196,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,8 +218,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,68 +288,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,24 +317,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,181 +352,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,15 +666,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -680,17 +677,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,155 +698,175 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,6 +909,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1244,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H28" sqref="H27:H28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -1285,7 +1297,7 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1311,14 +1323,14 @@
       <c r="E3" s="6">
         <v>65</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="15">
         <v>70</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G7" si="0">AVERAGE(C3:F3)</f>
         <v>63.75</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I3">
@@ -1341,14 +1353,14 @@
       <c r="E4" s="6">
         <v>65</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="17">
         <v>75</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>71.25</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="I4">
@@ -1367,14 +1379,14 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="15">
+      <c r="F5" s="17">
         <v>75</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
       <c r="I5">
@@ -1391,14 +1403,14 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="15">
+      <c r="F6" s="17">
         <v>75</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I6">
@@ -1415,14 +1427,14 @@
       <c r="E7" s="6">
         <v>80</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="17">
         <v>80</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="I7">
@@ -1439,11 +1451,11 @@
         <v>85</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="16"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="9">
         <v>85</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="19" t="s">
         <v>20</v>
       </c>
       <c r="I8">
@@ -1492,14 +1504,14 @@
       <c r="E10" s="11">
         <v>80</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="20">
         <v>85</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>81.25</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I10">
@@ -1522,14 +1534,14 @@
       <c r="E11" s="9">
         <v>90</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="17">
         <v>90</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>87.25</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I11">
@@ -1552,14 +1564,14 @@
       <c r="E12" s="6">
         <v>95</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="17">
         <v>95</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="16"/>
       <c r="I12">
         <v>4</v>
       </c>
@@ -1580,14 +1592,14 @@
       <c r="E13" s="6">
         <v>85</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="17">
         <v>95</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="16"/>
       <c r="I13">
         <v>3</v>
       </c>
@@ -1608,14 +1620,14 @@
       <c r="E14" s="6">
         <v>78</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="17">
         <v>80</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>80.25</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="16"/>
       <c r="I14">
         <v>1</v>
       </c>
@@ -1636,14 +1648,14 @@
       <c r="E15" s="6">
         <v>90</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="17">
         <v>85</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="16"/>
       <c r="I15">
         <v>4</v>
       </c>
@@ -1664,14 +1676,14 @@
       <c r="E16" s="6">
         <v>85</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="17">
         <v>80</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>83.75</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="16"/>
       <c r="I16">
         <v>1</v>
       </c>
@@ -1692,14 +1704,14 @@
       <c r="E17" s="6">
         <v>85</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="17">
         <v>85</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="16"/>
       <c r="I17">
         <v>2</v>
       </c>
@@ -1720,14 +1732,14 @@
       <c r="E18" s="6">
         <v>83</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="17">
         <v>85</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>80.75</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="16"/>
       <c r="I18">
         <v>5</v>
       </c>
@@ -1748,14 +1760,14 @@
       <c r="E19" s="6">
         <v>75</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="17">
         <v>80</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>78.75</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="16"/>
       <c r="I19">
         <v>4</v>
       </c>
@@ -1776,14 +1788,14 @@
       <c r="E20" s="6">
         <v>75</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="17">
         <v>85</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="I20">
@@ -1806,14 +1818,14 @@
       <c r="E21" s="6">
         <v>75</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="17">
         <v>85</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21:G24" si="2">AVERAGE(C21:F21)</f>
+        <f t="shared" ref="G21:G25" si="2">AVERAGE(C21:F21)</f>
         <v>77</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I21">
@@ -1836,14 +1848,14 @@
       <c r="E22" s="6">
         <v>80</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="17">
         <v>85</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="2"/>
         <v>81.25</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="16"/>
       <c r="I22">
         <v>4</v>
       </c>
@@ -1864,14 +1876,14 @@
       <c r="E23" s="6">
         <v>75</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="17">
         <v>80</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="2"/>
         <v>78.75</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="16"/>
       <c r="I23">
         <v>4</v>
       </c>
@@ -1892,51 +1904,84 @@
       <c r="E24" s="6">
         <v>80</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="17">
         <v>80</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" ht="25.5" spans="1:8">
-      <c r="A25" s="5">
+    <row r="25" ht="25.5" spans="1:9">
+      <c r="A25" s="7">
         <v>19</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="6">
-        <v>80</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" s="9">
+        <v>80</v>
+      </c>
+      <c r="D25" s="9">
         <v>75</v>
       </c>
-      <c r="E25" s="6">
-        <v>85</v>
-      </c>
-      <c r="F25" s="15">
-        <v>85</v>
-      </c>
-      <c r="G25" s="6">
-        <f>AVERAGE(C25:F25)</f>
+      <c r="E25" s="9">
+        <v>85</v>
+      </c>
+      <c r="F25" s="18">
+        <v>85</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="2"/>
         <v>81.25</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="9:9">
+      <c r="I25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="12">
+        <v>20</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="13">
+        <v>75</v>
+      </c>
+      <c r="D26" s="13">
+        <v>70</v>
+      </c>
+      <c r="E26" s="13">
+        <v>80</v>
+      </c>
+      <c r="F26" s="13">
+        <v>80</v>
+      </c>
+      <c r="G26" s="13">
+        <f>AVERAGE(C26:F26)</f>
+        <v>76.25</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="I26">
-        <f>SUM(I3:I24)</f>
-        <v>56</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9">
+      <c r="I27">
+        <f>SUM(I3:I26)</f>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/机电系统设计成绩统计.xlsx
+++ b/机电系统设计成绩统计.xlsx
@@ -163,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -202,6 +202,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -219,117 +324,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -352,13 +352,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,13 +490,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,145 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,6 +651,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -662,21 +671,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,6 +692,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -707,20 +710,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,139 +729,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,12 +909,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,16 +1250,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.9" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="8" max="8" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1297,7 +1291,7 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1323,14 +1317,14 @@
       <c r="E3" s="6">
         <v>65</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>70</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G7" si="0">AVERAGE(C3:F3)</f>
         <v>63.75</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I3">
@@ -1353,14 +1347,14 @@
       <c r="E4" s="6">
         <v>65</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <v>75</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>71.25</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="I4">
@@ -1379,14 +1373,14 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>75</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I5">
@@ -1403,14 +1397,14 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>75</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="I6">
@@ -1427,14 +1421,14 @@
       <c r="E7" s="6">
         <v>80</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>80</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="I7">
@@ -1451,11 +1445,11 @@
         <v>85</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="9">
         <v>85</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I8">
@@ -1504,14 +1498,14 @@
       <c r="E10" s="11">
         <v>80</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>85</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>81.25</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="I10">
@@ -1534,14 +1528,14 @@
       <c r="E11" s="9">
         <v>90</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>90</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>87.25</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="I11">
@@ -1564,14 +1558,14 @@
       <c r="E12" s="6">
         <v>95</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <v>95</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="14"/>
       <c r="I12">
         <v>4</v>
       </c>
@@ -1592,14 +1586,14 @@
       <c r="E13" s="6">
         <v>85</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <v>95</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="14"/>
       <c r="I13">
         <v>3</v>
       </c>
@@ -1620,14 +1614,14 @@
       <c r="E14" s="6">
         <v>78</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="15">
         <v>80</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>80.25</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="14"/>
       <c r="I14">
         <v>1</v>
       </c>
@@ -1648,14 +1642,14 @@
       <c r="E15" s="6">
         <v>90</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <v>85</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="14"/>
       <c r="I15">
         <v>4</v>
       </c>
@@ -1676,14 +1670,14 @@
       <c r="E16" s="6">
         <v>85</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <v>80</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>83.75</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="14"/>
       <c r="I16">
         <v>1</v>
       </c>
@@ -1704,14 +1698,14 @@
       <c r="E17" s="6">
         <v>85</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="15">
         <v>85</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="14"/>
       <c r="I17">
         <v>2</v>
       </c>
@@ -1732,14 +1726,14 @@
       <c r="E18" s="6">
         <v>83</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="15">
         <v>85</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>80.75</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="14"/>
       <c r="I18">
         <v>5</v>
       </c>
@@ -1760,14 +1754,14 @@
       <c r="E19" s="6">
         <v>75</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <v>80</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>78.75</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="14"/>
       <c r="I19">
         <v>4</v>
       </c>
@@ -1788,14 +1782,14 @@
       <c r="E20" s="6">
         <v>75</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="15">
         <v>85</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="I20">
@@ -1818,14 +1812,14 @@
       <c r="E21" s="6">
         <v>75</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="15">
         <v>85</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21:G25" si="2">AVERAGE(C21:F21)</f>
+        <f t="shared" ref="G21:G26" si="2">AVERAGE(C21:F21)</f>
         <v>77</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="14" t="s">
         <v>37</v>
       </c>
       <c r="I21">
@@ -1848,14 +1842,14 @@
       <c r="E22" s="6">
         <v>80</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="15">
         <v>85</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="2"/>
         <v>81.25</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="14"/>
       <c r="I22">
         <v>4</v>
       </c>
@@ -1876,14 +1870,14 @@
       <c r="E23" s="6">
         <v>75</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="15">
         <v>80</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="2"/>
         <v>78.75</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="14"/>
       <c r="I23">
         <v>4</v>
       </c>
@@ -1904,14 +1898,14 @@
       <c r="E24" s="6">
         <v>80</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="15">
         <v>80</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="14" t="s">
         <v>41</v>
       </c>
       <c r="I24">
@@ -1934,14 +1928,14 @@
       <c r="E25" s="9">
         <v>85</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <v>85</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="2"/>
         <v>81.25</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="17" t="s">
         <v>43</v>
       </c>
       <c r="I25">
@@ -1949,39 +1943,33 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="12">
+      <c r="A26" s="5">
         <v>20</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="6">
         <v>75</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="6">
         <v>70</v>
       </c>
-      <c r="E26" s="13">
-        <v>80</v>
-      </c>
-      <c r="F26" s="13">
-        <v>80</v>
-      </c>
-      <c r="G26" s="13">
-        <f>AVERAGE(C26:F26)</f>
+      <c r="E26" s="6">
+        <v>80</v>
+      </c>
+      <c r="F26" s="6">
+        <v>80</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="2"/>
         <v>76.25</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="6" t="s">
         <v>45</v>
       </c>
       <c r="I26">
         <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9">
-      <c r="I27">
-        <f>SUM(I3:I26)</f>
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/机电系统设计成绩统计.xlsx
+++ b/机电系统设计成绩统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>机电系统设计课程设计评分记录表(Draft)</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>文档撰写质量不高，内容有点偏题，</t>
+  </si>
+  <si>
+    <t>许志勇 谢智明 徐国乐 徐阳/</t>
+  </si>
+  <si>
+    <t>文档和PPT格式和内容都比较完整。报告内容完整，系统性好，美中不足就是内容略少了点。</t>
+  </si>
+  <si>
+    <t>黄加龙</t>
+  </si>
+  <si>
+    <t>设计方案比较简单，报告写的比较简单</t>
   </si>
 </sst>
 </file>
@@ -165,10 +177,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +197,149 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -194,142 +349,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -346,61 +365,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,126 +545,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -627,18 +646,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -661,6 +676,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -675,17 +705,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,13 +725,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,152 +759,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,6 +941,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -933,6 +975,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1250,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -1291,7 +1336,7 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1317,14 +1362,14 @@
       <c r="E3" s="6">
         <v>65</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="17">
         <v>70</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G7" si="0">AVERAGE(C3:F3)</f>
         <v>63.75</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="I3">
@@ -1347,14 +1392,14 @@
       <c r="E4" s="6">
         <v>65</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="19">
         <v>75</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>71.25</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="I4">
@@ -1373,14 +1418,14 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="15">
+      <c r="F5" s="19">
         <v>75</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="I5">
@@ -1397,14 +1442,14 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="15">
+      <c r="F6" s="19">
         <v>75</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I6">
@@ -1421,14 +1466,14 @@
       <c r="E7" s="6">
         <v>80</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="19">
         <v>80</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="I7">
@@ -1445,11 +1490,11 @@
         <v>85</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="16"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="9">
         <v>85</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="21" t="s">
         <v>20</v>
       </c>
       <c r="I8">
@@ -1498,14 +1543,14 @@
       <c r="E10" s="11">
         <v>80</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="22">
         <v>85</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>81.25</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="23" t="s">
         <v>23</v>
       </c>
       <c r="I10">
@@ -1528,14 +1573,14 @@
       <c r="E11" s="9">
         <v>90</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="19">
         <v>90</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>87.25</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="I11">
@@ -1558,14 +1603,14 @@
       <c r="E12" s="6">
         <v>95</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="19">
         <v>95</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="18"/>
       <c r="I12">
         <v>4</v>
       </c>
@@ -1586,14 +1631,14 @@
       <c r="E13" s="6">
         <v>85</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="19">
         <v>95</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="18"/>
       <c r="I13">
         <v>3</v>
       </c>
@@ -1614,14 +1659,14 @@
       <c r="E14" s="6">
         <v>78</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="19">
         <v>80</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>80.25</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="18"/>
       <c r="I14">
         <v>1</v>
       </c>
@@ -1642,14 +1687,14 @@
       <c r="E15" s="6">
         <v>90</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="19">
         <v>85</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="18"/>
       <c r="I15">
         <v>4</v>
       </c>
@@ -1670,14 +1715,14 @@
       <c r="E16" s="6">
         <v>85</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="19">
         <v>80</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>83.75</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="18"/>
       <c r="I16">
         <v>1</v>
       </c>
@@ -1698,14 +1743,14 @@
       <c r="E17" s="6">
         <v>85</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="19">
         <v>85</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="18"/>
       <c r="I17">
         <v>2</v>
       </c>
@@ -1726,14 +1771,14 @@
       <c r="E18" s="6">
         <v>83</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="19">
         <v>85</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>80.75</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="18"/>
       <c r="I18">
         <v>5</v>
       </c>
@@ -1754,14 +1799,14 @@
       <c r="E19" s="6">
         <v>75</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="19">
         <v>80</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>78.75</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="18"/>
       <c r="I19">
         <v>4</v>
       </c>
@@ -1782,14 +1827,14 @@
       <c r="E20" s="6">
         <v>75</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="19">
         <v>85</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I20">
@@ -1812,14 +1857,14 @@
       <c r="E21" s="6">
         <v>75</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="19">
         <v>85</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" ref="G21:G26" si="2">AVERAGE(C21:F21)</f>
         <v>77</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="18" t="s">
         <v>37</v>
       </c>
       <c r="I21">
@@ -1842,14 +1887,14 @@
       <c r="E22" s="6">
         <v>80</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="19">
         <v>85</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="2"/>
         <v>81.25</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="18"/>
       <c r="I22">
         <v>4</v>
       </c>
@@ -1870,14 +1915,14 @@
       <c r="E23" s="6">
         <v>75</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="19">
         <v>80</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="2"/>
         <v>78.75</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="18"/>
       <c r="I23">
         <v>4</v>
       </c>
@@ -1898,14 +1943,14 @@
       <c r="E24" s="6">
         <v>80</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="19">
         <v>80</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="18" t="s">
         <v>41</v>
       </c>
       <c r="I24">
@@ -1928,14 +1973,14 @@
       <c r="E25" s="9">
         <v>85</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="20">
         <v>85</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="2"/>
         <v>81.25</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="21" t="s">
         <v>43</v>
       </c>
       <c r="I25">
@@ -1943,25 +1988,25 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="5">
+      <c r="A26" s="7">
         <v>20</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="9">
         <v>75</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="9">
         <v>70</v>
       </c>
-      <c r="E26" s="6">
-        <v>80</v>
-      </c>
-      <c r="F26" s="6">
-        <v>80</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="E26" s="9">
+        <v>80</v>
+      </c>
+      <c r="F26" s="9">
+        <v>80</v>
+      </c>
+      <c r="G26" s="9">
         <f t="shared" si="2"/>
         <v>76.25</v>
       </c>
@@ -1970,6 +2015,59 @@
       </c>
       <c r="I26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="38.25" spans="1:8">
+      <c r="A27" s="12">
+        <v>21</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="13">
+        <v>90</v>
+      </c>
+      <c r="D27" s="13">
+        <v>86</v>
+      </c>
+      <c r="E27" s="13">
+        <v>84</v>
+      </c>
+      <c r="F27" s="13">
+        <v>95</v>
+      </c>
+      <c r="G27" s="13">
+        <f>AVERAGE(C27:F27)</f>
+        <v>88.75</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="14">
+        <v>22</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="15">
+        <v>80</v>
+      </c>
+      <c r="D28" s="15">
+        <v>80</v>
+      </c>
+      <c r="E28" s="15">
+        <v>80</v>
+      </c>
+      <c r="F28" s="15">
+        <v>80</v>
+      </c>
+      <c r="G28" s="15">
+        <v>80</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
